--- a/2023/BCom/Sem 3_result.xlsx
+++ b/2023/BCom/Sem 3_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,8 +479,8 @@
     <col width="13" customWidth="1" min="21" max="21"/>
     <col width="11" customWidth="1" min="22" max="22"/>
     <col width="12" customWidth="1" min="23" max="23"/>
-    <col width="10" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="11" customWidth="1" min="24" max="24"/>
+    <col width="11" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -20498,8 +20498,16 @@
       <c r="W174" s="2" t="n">
         <v>73.56999999999999</v>
       </c>
-      <c r="X174" s="2" t="inlineStr"/>
-      <c r="Y174" s="2" t="inlineStr"/>
+      <c r="X174" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y174" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="25" customHeight="1">
       <c r="A175" s="3" t="n">
@@ -20839,8 +20847,16 @@
       <c r="W177" s="3" t="n">
         <v>73.43000000000001</v>
       </c>
-      <c r="X177" s="3" t="inlineStr"/>
-      <c r="Y177" s="3" t="inlineStr"/>
+      <c r="X177" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y177" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="178" ht="25" customHeight="1">
       <c r="A178" s="2" t="n">
@@ -23710,8 +23726,16 @@
       <c r="W202" s="2" t="n">
         <v>69.56999999999999</v>
       </c>
-      <c r="X202" s="2" t="inlineStr"/>
-      <c r="Y202" s="2" t="inlineStr"/>
+      <c r="X202" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y202" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="203" ht="25" customHeight="1">
       <c r="A203" s="3" t="n">
@@ -24166,8 +24190,16 @@
       <c r="W206" s="2" t="n">
         <v>69.14</v>
       </c>
-      <c r="X206" s="2" t="inlineStr"/>
-      <c r="Y206" s="2" t="inlineStr"/>
+      <c r="X206" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y206" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="207" ht="25" customHeight="1">
       <c r="A207" s="3" t="n">
@@ -26117,8 +26149,16 @@
       <c r="W223" s="3" t="n">
         <v>67.70999999999999</v>
       </c>
-      <c r="X223" s="3" t="inlineStr"/>
-      <c r="Y223" s="3" t="inlineStr"/>
+      <c r="X223" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y223" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="224" ht="25" customHeight="1">
       <c r="A224" s="2" t="n">
@@ -26573,8 +26613,16 @@
       <c r="W227" s="3" t="n">
         <v>67.56999999999999</v>
       </c>
-      <c r="X227" s="3" t="inlineStr"/>
-      <c r="Y227" s="3" t="inlineStr"/>
+      <c r="X227" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y227" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="228" ht="25" customHeight="1">
       <c r="A228" s="2" t="n">
@@ -26684,8 +26732,16 @@
       <c r="W228" s="2" t="n">
         <v>67.43000000000001</v>
       </c>
-      <c r="X228" s="2" t="inlineStr"/>
-      <c r="Y228" s="2" t="inlineStr"/>
+      <c r="X228" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y228" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="229" ht="25" customHeight="1">
       <c r="A229" s="3" t="n">
@@ -27025,8 +27081,16 @@
       <c r="W231" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="X231" s="3" t="inlineStr"/>
-      <c r="Y231" s="3" t="inlineStr"/>
+      <c r="X231" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y231" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="232" ht="25" customHeight="1">
       <c r="A232" s="2" t="n">
@@ -27711,8 +27775,16 @@
       <c r="W237" s="3" t="n">
         <v>66.56999999999999</v>
       </c>
-      <c r="X237" s="3" t="inlineStr"/>
-      <c r="Y237" s="3" t="inlineStr"/>
+      <c r="X237" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y237" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="238" ht="25" customHeight="1">
       <c r="A238" s="2" t="n">
@@ -27937,8 +28009,16 @@
       <c r="W239" s="3" t="n">
         <v>66.56999999999999</v>
       </c>
-      <c r="X239" s="3" t="inlineStr"/>
-      <c r="Y239" s="3" t="inlineStr"/>
+      <c r="X239" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y239" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="240" ht="25" customHeight="1">
       <c r="A240" s="2" t="n">
@@ -28278,8 +28358,16 @@
       <c r="W242" s="2" t="n">
         <v>65.86</v>
       </c>
-      <c r="X242" s="2" t="inlineStr"/>
-      <c r="Y242" s="2" t="inlineStr"/>
+      <c r="X242" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y242" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="243" ht="25" customHeight="1">
       <c r="A243" s="3" t="n">
@@ -28849,8 +28937,16 @@
       <c r="W247" s="3" t="n">
         <v>65.56999999999999</v>
       </c>
-      <c r="X247" s="3" t="inlineStr"/>
-      <c r="Y247" s="3" t="inlineStr"/>
+      <c r="X247" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y247" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="248" ht="25" customHeight="1">
       <c r="A248" s="2" t="n">
@@ -29075,8 +29171,16 @@
       <c r="W249" s="3" t="n">
         <v>65.14</v>
       </c>
-      <c r="X249" s="3" t="inlineStr"/>
-      <c r="Y249" s="3" t="inlineStr"/>
+      <c r="X249" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y249" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="250" ht="25" customHeight="1">
       <c r="A250" s="2" t="n">
@@ -29301,8 +29405,16 @@
       <c r="W251" s="3" t="n">
         <v>64.86</v>
       </c>
-      <c r="X251" s="3" t="inlineStr"/>
-      <c r="Y251" s="3" t="inlineStr"/>
+      <c r="X251" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y251" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="252" ht="25" customHeight="1">
       <c r="A252" s="2" t="n">
@@ -29757,8 +29869,16 @@
       <c r="W255" s="3" t="n">
         <v>64.29000000000001</v>
       </c>
-      <c r="X255" s="3" t="inlineStr"/>
-      <c r="Y255" s="3" t="inlineStr"/>
+      <c r="X255" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y255" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="256" ht="25" customHeight="1">
       <c r="A256" s="2" t="n">
@@ -29983,8 +30103,16 @@
       <c r="W257" s="3" t="n">
         <v>64.29000000000001</v>
       </c>
-      <c r="X257" s="3" t="inlineStr"/>
-      <c r="Y257" s="3" t="inlineStr"/>
+      <c r="X257" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y257" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="258" ht="25" customHeight="1">
       <c r="A258" s="2" t="n">
@@ -30094,8 +30222,16 @@
       <c r="W258" s="2" t="n">
         <v>64.14</v>
       </c>
-      <c r="X258" s="2" t="inlineStr"/>
-      <c r="Y258" s="2" t="inlineStr"/>
+      <c r="X258" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y258" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="259" ht="25" customHeight="1">
       <c r="A259" s="3" t="n">
@@ -30320,8 +30456,16 @@
       <c r="W260" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="X260" s="2" t="inlineStr"/>
-      <c r="Y260" s="2" t="inlineStr"/>
+      <c r="X260" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y260" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="261" ht="25" customHeight="1">
       <c r="A261" s="3" t="n">
@@ -30431,8 +30575,16 @@
       <c r="W261" s="3" t="n">
         <v>63.71</v>
       </c>
-      <c r="X261" s="3" t="inlineStr"/>
-      <c r="Y261" s="3" t="inlineStr"/>
+      <c r="X261" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y261" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="262" ht="25" customHeight="1">
       <c r="A262" s="2" t="n">
@@ -30657,8 +30809,16 @@
       <c r="W263" s="3" t="n">
         <v>63.14</v>
       </c>
-      <c r="X263" s="3" t="inlineStr"/>
-      <c r="Y263" s="3" t="inlineStr"/>
+      <c r="X263" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y263" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="264" ht="25" customHeight="1">
       <c r="A264" s="2" t="n">
@@ -30883,8 +31043,16 @@
       <c r="W265" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="X265" s="3" t="inlineStr"/>
-      <c r="Y265" s="3" t="inlineStr"/>
+      <c r="X265" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y265" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="266" ht="25" customHeight="1">
       <c r="A266" s="2" t="n">
@@ -30994,8 +31162,16 @@
       <c r="W266" s="2" t="n">
         <v>62.57</v>
       </c>
-      <c r="X266" s="2" t="inlineStr"/>
-      <c r="Y266" s="2" t="inlineStr"/>
+      <c r="X266" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y266" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="267" ht="25" customHeight="1">
       <c r="A267" s="3" t="n">
@@ -31220,8 +31396,16 @@
       <c r="W268" s="2" t="n">
         <v>62.43</v>
       </c>
-      <c r="X268" s="2" t="inlineStr"/>
-      <c r="Y268" s="2" t="inlineStr"/>
+      <c r="X268" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y268" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="269" ht="25" customHeight="1">
       <c r="A269" s="3" t="n">
@@ -31331,8 +31515,16 @@
       <c r="W269" s="3" t="n">
         <v>62.29</v>
       </c>
-      <c r="X269" s="3" t="inlineStr"/>
-      <c r="Y269" s="3" t="inlineStr"/>
+      <c r="X269" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y269" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="270" ht="25" customHeight="1">
       <c r="A270" s="2" t="n">
@@ -31442,8 +31634,16 @@
       <c r="W270" s="2" t="n">
         <v>62.14</v>
       </c>
-      <c r="X270" s="2" t="inlineStr"/>
-      <c r="Y270" s="2" t="inlineStr"/>
+      <c r="X270" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y270" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="271" ht="25" customHeight="1">
       <c r="A271" s="3" t="n">
@@ -31553,8 +31753,16 @@
       <c r="W271" s="3" t="n">
         <v>61.86</v>
       </c>
-      <c r="X271" s="3" t="inlineStr"/>
-      <c r="Y271" s="3" t="inlineStr"/>
+      <c r="X271" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y271" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="272" ht="25" customHeight="1">
       <c r="A272" s="2" t="n">
@@ -31779,8 +31987,16 @@
       <c r="W273" s="3" t="n">
         <v>61.86</v>
       </c>
-      <c r="X273" s="3" t="inlineStr"/>
-      <c r="Y273" s="3" t="inlineStr"/>
+      <c r="X273" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y273" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="274" ht="25" customHeight="1">
       <c r="A274" s="2" t="n">
@@ -31890,8 +32106,16 @@
       <c r="W274" s="2" t="n">
         <v>61.71</v>
       </c>
-      <c r="X274" s="2" t="inlineStr"/>
-      <c r="Y274" s="2" t="inlineStr"/>
+      <c r="X274" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y274" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="275" ht="25" customHeight="1">
       <c r="A275" s="3" t="n">
@@ -32001,8 +32225,16 @@
       <c r="W275" s="3" t="n">
         <v>61.71</v>
       </c>
-      <c r="X275" s="3" t="inlineStr"/>
-      <c r="Y275" s="3" t="inlineStr"/>
+      <c r="X275" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y275" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="276" ht="25" customHeight="1">
       <c r="A276" s="2" t="n">
@@ -32112,8 +32344,16 @@
       <c r="W276" s="2" t="n">
         <v>61.71</v>
       </c>
-      <c r="X276" s="2" t="inlineStr"/>
-      <c r="Y276" s="2" t="inlineStr"/>
+      <c r="X276" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y276" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="277" ht="25" customHeight="1">
       <c r="A277" s="3" t="n">
@@ -32338,8 +32578,16 @@
       <c r="W278" s="2" t="n">
         <v>61.57</v>
       </c>
-      <c r="X278" s="2" t="inlineStr"/>
-      <c r="Y278" s="2" t="inlineStr"/>
+      <c r="X278" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y278" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="279" ht="25" customHeight="1">
       <c r="A279" s="3" t="n">
@@ -32449,8 +32697,16 @@
       <c r="W279" s="3" t="n">
         <v>61.43</v>
       </c>
-      <c r="X279" s="3" t="inlineStr"/>
-      <c r="Y279" s="3" t="inlineStr"/>
+      <c r="X279" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y279" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="280" ht="25" customHeight="1">
       <c r="A280" s="2" t="n">
@@ -32560,8 +32816,16 @@
       <c r="W280" s="2" t="n">
         <v>61.43</v>
       </c>
-      <c r="X280" s="2" t="inlineStr"/>
-      <c r="Y280" s="2" t="inlineStr"/>
+      <c r="X280" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y280" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="281" ht="25" customHeight="1">
       <c r="A281" s="3" t="n">
@@ -32786,8 +33050,16 @@
       <c r="W282" s="2" t="n">
         <v>61.14</v>
       </c>
-      <c r="X282" s="2" t="inlineStr"/>
-      <c r="Y282" s="2" t="inlineStr"/>
+      <c r="X282" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y282" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="283" ht="25" customHeight="1">
       <c r="A283" s="3" t="n">
@@ -33127,8 +33399,16 @@
       <c r="W285" s="3" t="n">
         <v>60.71</v>
       </c>
-      <c r="X285" s="3" t="inlineStr"/>
-      <c r="Y285" s="3" t="inlineStr"/>
+      <c r="X285" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y285" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="286" ht="25" customHeight="1">
       <c r="A286" s="2" t="n">
@@ -33353,8 +33633,16 @@
       <c r="W287" s="3" t="n">
         <v>60.57</v>
       </c>
-      <c r="X287" s="3" t="inlineStr"/>
-      <c r="Y287" s="3" t="inlineStr"/>
+      <c r="X287" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y287" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="288" ht="25" customHeight="1">
       <c r="A288" s="2" t="n">
@@ -33464,8 +33752,16 @@
       <c r="W288" s="2" t="n">
         <v>60.43</v>
       </c>
-      <c r="X288" s="2" t="inlineStr"/>
-      <c r="Y288" s="2" t="inlineStr"/>
+      <c r="X288" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y288" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="289" ht="25" customHeight="1">
       <c r="A289" s="3" t="n">
@@ -33690,8 +33986,16 @@
       <c r="W290" s="2" t="n">
         <v>60.29</v>
       </c>
-      <c r="X290" s="2" t="inlineStr"/>
-      <c r="Y290" s="2" t="inlineStr"/>
+      <c r="X290" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y290" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="291" ht="25" customHeight="1">
       <c r="A291" s="3" t="n">
@@ -34491,8 +34795,16 @@
       <c r="W297" s="3" t="n">
         <v>59.14</v>
       </c>
-      <c r="X297" s="3" t="inlineStr"/>
-      <c r="Y297" s="3" t="inlineStr"/>
+      <c r="X297" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y297" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="298" ht="25" customHeight="1">
       <c r="A298" s="2" t="n">
@@ -34717,8 +35029,16 @@
       <c r="W299" s="3" t="n">
         <v>58.93</v>
       </c>
-      <c r="X299" s="3" t="inlineStr"/>
-      <c r="Y299" s="3" t="inlineStr"/>
+      <c r="X299" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y299" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="300" ht="25" customHeight="1">
       <c r="A300" s="2" t="n">
@@ -34828,8 +35148,16 @@
       <c r="W300" s="2" t="n">
         <v>58.86</v>
       </c>
-      <c r="X300" s="2" t="inlineStr"/>
-      <c r="Y300" s="2" t="inlineStr"/>
+      <c r="X300" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y300" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="301" ht="25" customHeight="1">
       <c r="A301" s="3" t="n">
@@ -34939,8 +35267,16 @@
       <c r="W301" s="3" t="n">
         <v>58.71</v>
       </c>
-      <c r="X301" s="3" t="inlineStr"/>
-      <c r="Y301" s="3" t="inlineStr"/>
+      <c r="X301" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y301" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="302" ht="25" customHeight="1">
       <c r="A302" s="2" t="n">
@@ -35165,8 +35501,16 @@
       <c r="W303" s="3" t="n">
         <v>58.29</v>
       </c>
-      <c r="X303" s="3" t="inlineStr"/>
-      <c r="Y303" s="3" t="inlineStr"/>
+      <c r="X303" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y303" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="304" ht="25" customHeight="1">
       <c r="A304" s="2" t="n">
@@ -35391,8 +35735,16 @@
       <c r="W305" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="X305" s="3" t="inlineStr"/>
-      <c r="Y305" s="3" t="inlineStr"/>
+      <c r="X305" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y305" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="306" ht="25" customHeight="1">
       <c r="A306" s="2" t="n">
@@ -35502,8 +35854,16 @@
       <c r="W306" s="2" t="n">
         <v>57.71</v>
       </c>
-      <c r="X306" s="2" t="inlineStr"/>
-      <c r="Y306" s="2" t="inlineStr"/>
+      <c r="X306" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y306" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="307" ht="25" customHeight="1">
       <c r="A307" s="3" t="n">
@@ -35728,8 +36088,16 @@
       <c r="W308" s="2" t="n">
         <v>57.43</v>
       </c>
-      <c r="X308" s="2" t="inlineStr"/>
-      <c r="Y308" s="2" t="inlineStr"/>
+      <c r="X308" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y308" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="309" ht="25" customHeight="1">
       <c r="A309" s="3" t="n">
@@ -36069,8 +36437,16 @@
       <c r="W311" s="3" t="n">
         <v>56.86</v>
       </c>
-      <c r="X311" s="3" t="inlineStr"/>
-      <c r="Y311" s="3" t="inlineStr"/>
+      <c r="X311" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y311" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="312" ht="25" customHeight="1">
       <c r="A312" s="2" t="n">
@@ -36180,8 +36556,16 @@
       <c r="W312" s="2" t="n">
         <v>56.86</v>
       </c>
-      <c r="X312" s="2" t="inlineStr"/>
-      <c r="Y312" s="2" t="inlineStr"/>
+      <c r="X312" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y312" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="313" ht="25" customHeight="1">
       <c r="A313" s="3" t="n">
@@ -36291,8 +36675,16 @@
       <c r="W313" s="3" t="n">
         <v>56.71</v>
       </c>
-      <c r="X313" s="3" t="inlineStr"/>
-      <c r="Y313" s="3" t="inlineStr"/>
+      <c r="X313" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y313" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="314" ht="25" customHeight="1">
       <c r="A314" s="2" t="n">
@@ -36517,8 +36909,16 @@
       <c r="W315" s="3" t="n">
         <v>56.14</v>
       </c>
-      <c r="X315" s="3" t="inlineStr"/>
-      <c r="Y315" s="3" t="inlineStr"/>
+      <c r="X315" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y315" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="316" ht="25" customHeight="1">
       <c r="A316" s="2" t="n">
@@ -36628,8 +37028,16 @@
       <c r="W316" s="2" t="n">
         <v>55.86</v>
       </c>
-      <c r="X316" s="2" t="inlineStr"/>
-      <c r="Y316" s="2" t="inlineStr"/>
+      <c r="X316" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y316" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="317" ht="25" customHeight="1">
       <c r="A317" s="3" t="n">
@@ -36739,8 +37147,16 @@
       <c r="W317" s="3" t="n">
         <v>55.86</v>
       </c>
-      <c r="X317" s="3" t="inlineStr"/>
-      <c r="Y317" s="3" t="inlineStr"/>
+      <c r="X317" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y317" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="318" ht="25" customHeight="1">
       <c r="A318" s="2" t="n">
@@ -36850,8 +37266,16 @@
       <c r="W318" s="2" t="n">
         <v>54.71</v>
       </c>
-      <c r="X318" s="2" t="inlineStr"/>
-      <c r="Y318" s="2" t="inlineStr"/>
+      <c r="X318" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y318" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="319" ht="25" customHeight="1">
       <c r="A319" s="3" t="n">
@@ -36961,8 +37385,16 @@
       <c r="W319" s="3" t="n">
         <v>54.14</v>
       </c>
-      <c r="X319" s="3" t="inlineStr"/>
-      <c r="Y319" s="3" t="inlineStr"/>
+      <c r="X319" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y319" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="320" ht="25" customHeight="1">
       <c r="A320" s="2" t="n">
@@ -37417,8 +37849,16 @@
       <c r="W323" s="3" t="n">
         <v>53.86</v>
       </c>
-      <c r="X323" s="3" t="inlineStr"/>
-      <c r="Y323" s="3" t="inlineStr"/>
+      <c r="X323" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y323" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="324" ht="25" customHeight="1">
       <c r="A324" s="2" t="n">
@@ -37528,8 +37968,16 @@
       <c r="W324" s="2" t="n">
         <v>53.71</v>
       </c>
-      <c r="X324" s="2" t="inlineStr"/>
-      <c r="Y324" s="2" t="inlineStr"/>
+      <c r="X324" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y324" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="325" ht="25" customHeight="1">
       <c r="A325" s="3" t="n">
@@ -37639,8 +38087,16 @@
       <c r="W325" s="3" t="n">
         <v>53.57</v>
       </c>
-      <c r="X325" s="3" t="inlineStr"/>
-      <c r="Y325" s="3" t="inlineStr"/>
+      <c r="X325" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y325" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="326" ht="25" customHeight="1">
       <c r="A326" s="2" t="n">
@@ -37750,8 +38206,16 @@
       <c r="W326" s="2" t="n">
         <v>53.43</v>
       </c>
-      <c r="X326" s="2" t="inlineStr"/>
-      <c r="Y326" s="2" t="inlineStr"/>
+      <c r="X326" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y326" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="327" ht="25" customHeight="1">
       <c r="A327" s="3" t="n">
@@ -37861,8 +38325,16 @@
       <c r="W327" s="3" t="n">
         <v>53.43</v>
       </c>
-      <c r="X327" s="3" t="inlineStr"/>
-      <c r="Y327" s="3" t="inlineStr"/>
+      <c r="X327" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y327" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="328" ht="25" customHeight="1">
       <c r="A328" s="2" t="n">
@@ -37972,8 +38444,16 @@
       <c r="W328" s="2" t="n">
         <v>53.43</v>
       </c>
-      <c r="X328" s="2" t="inlineStr"/>
-      <c r="Y328" s="2" t="inlineStr"/>
+      <c r="X328" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y328" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="329" ht="25" customHeight="1">
       <c r="A329" s="3" t="n">
@@ -38083,8 +38563,16 @@
       <c r="W329" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="X329" s="3" t="inlineStr"/>
-      <c r="Y329" s="3" t="inlineStr"/>
+      <c r="X329" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y329" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="330" ht="25" customHeight="1">
       <c r="A330" s="2" t="n">
@@ -38194,8 +38682,16 @@
       <c r="W330" s="2" t="n">
         <v>52.43</v>
       </c>
-      <c r="X330" s="2" t="inlineStr"/>
-      <c r="Y330" s="2" t="inlineStr"/>
+      <c r="X330" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y330" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="331" ht="25" customHeight="1">
       <c r="A331" s="3" t="n">
@@ -38305,8 +38801,16 @@
       <c r="W331" s="3" t="n">
         <v>52.43</v>
       </c>
-      <c r="X331" s="3" t="inlineStr"/>
-      <c r="Y331" s="3" t="inlineStr"/>
+      <c r="X331" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y331" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="332" ht="25" customHeight="1">
       <c r="A332" s="2" t="n">
@@ -38416,8 +38920,16 @@
       <c r="W332" s="2" t="n">
         <v>52.14</v>
       </c>
-      <c r="X332" s="2" t="inlineStr"/>
-      <c r="Y332" s="2" t="inlineStr"/>
+      <c r="X332" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y332" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="333" ht="25" customHeight="1">
       <c r="A333" s="3" t="n">
@@ -38527,8 +39039,16 @@
       <c r="W333" s="3" t="n">
         <v>52.14</v>
       </c>
-      <c r="X333" s="3" t="inlineStr"/>
-      <c r="Y333" s="3" t="inlineStr"/>
+      <c r="X333" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y333" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="334" ht="25" customHeight="1">
       <c r="A334" s="2" t="n">
@@ -38753,8 +39273,16 @@
       <c r="W335" s="3" t="n">
         <v>51.57</v>
       </c>
-      <c r="X335" s="3" t="inlineStr"/>
-      <c r="Y335" s="3" t="inlineStr"/>
+      <c r="X335" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y335" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="336" ht="25" customHeight="1">
       <c r="A336" s="2" t="n">
@@ -38864,8 +39392,16 @@
       <c r="W336" s="2" t="n">
         <v>51.14</v>
       </c>
-      <c r="X336" s="2" t="inlineStr"/>
-      <c r="Y336" s="2" t="inlineStr"/>
+      <c r="X336" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y336" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="337" ht="25" customHeight="1">
       <c r="A337" s="3" t="n">
@@ -38975,8 +39511,16 @@
       <c r="W337" s="3" t="n">
         <v>50.71</v>
       </c>
-      <c r="X337" s="3" t="inlineStr"/>
-      <c r="Y337" s="3" t="inlineStr"/>
+      <c r="X337" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y337" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="338" ht="25" customHeight="1">
       <c r="A338" s="2" t="n">
@@ -39086,8 +39630,16 @@
       <c r="W338" s="2" t="n">
         <v>49.71</v>
       </c>
-      <c r="X338" s="2" t="inlineStr"/>
-      <c r="Y338" s="2" t="inlineStr"/>
+      <c r="X338" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y338" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="339" ht="25" customHeight="1">
       <c r="A339" s="3" t="n">
@@ -39197,8 +39749,16 @@
       <c r="W339" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="X339" s="3" t="inlineStr"/>
-      <c r="Y339" s="3" t="inlineStr"/>
+      <c r="X339" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y339" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="340" ht="25" customHeight="1">
       <c r="A340" s="2" t="n">
@@ -39308,8 +39868,16 @@
       <c r="W340" s="2" t="n">
         <v>48.86</v>
       </c>
-      <c r="X340" s="2" t="inlineStr"/>
-      <c r="Y340" s="2" t="inlineStr"/>
+      <c r="X340" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y340" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="341" ht="25" customHeight="1">
       <c r="A341" s="3" t="n">
@@ -39419,8 +39987,16 @@
       <c r="W341" s="3" t="n">
         <v>48.71</v>
       </c>
-      <c r="X341" s="3" t="inlineStr"/>
-      <c r="Y341" s="3" t="inlineStr"/>
+      <c r="X341" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y341" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="342" ht="25" customHeight="1">
       <c r="A342" s="2" t="n">
@@ -39530,8 +40106,16 @@
       <c r="W342" s="2" t="n">
         <v>48.29</v>
       </c>
-      <c r="X342" s="2" t="inlineStr"/>
-      <c r="Y342" s="2" t="inlineStr"/>
+      <c r="X342" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y342" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="343" ht="25" customHeight="1">
       <c r="A343" s="3" t="n">
@@ -39641,8 +40225,16 @@
       <c r="W343" s="3" t="n">
         <v>47.86</v>
       </c>
-      <c r="X343" s="3" t="inlineStr"/>
-      <c r="Y343" s="3" t="inlineStr"/>
+      <c r="X343" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y343" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="344" ht="25" customHeight="1">
       <c r="A344" s="2" t="n">
@@ -39752,8 +40344,16 @@
       <c r="W344" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="X344" s="2" t="inlineStr"/>
-      <c r="Y344" s="2" t="inlineStr"/>
+      <c r="X344" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y344" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="345" ht="25" customHeight="1">
       <c r="A345" s="3" t="n">
@@ -39863,8 +40463,16 @@
       <c r="W345" s="3" t="n">
         <v>47.43</v>
       </c>
-      <c r="X345" s="3" t="inlineStr"/>
-      <c r="Y345" s="3" t="inlineStr"/>
+      <c r="X345" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y345" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="346" ht="25" customHeight="1">
       <c r="A346" s="2" t="n">
@@ -39974,8 +40582,16 @@
       <c r="W346" s="2" t="n">
         <v>47.43</v>
       </c>
-      <c r="X346" s="2" t="inlineStr"/>
-      <c r="Y346" s="2" t="inlineStr"/>
+      <c r="X346" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y346" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="347" ht="25" customHeight="1">
       <c r="A347" s="3" t="n">
@@ -40085,8 +40701,16 @@
       <c r="W347" s="3" t="n">
         <v>47.33</v>
       </c>
-      <c r="X347" s="3" t="inlineStr"/>
-      <c r="Y347" s="3" t="inlineStr"/>
+      <c r="X347" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y347" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="348" ht="25" customHeight="1">
       <c r="A348" s="2" t="n">
@@ -40196,8 +40820,16 @@
       <c r="W348" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="X348" s="2" t="inlineStr"/>
-      <c r="Y348" s="2" t="inlineStr"/>
+      <c r="X348" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y348" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="349" ht="25" customHeight="1">
       <c r="A349" s="3" t="n">
@@ -40307,8 +40939,16 @@
       <c r="W349" s="3" t="n">
         <v>46.71</v>
       </c>
-      <c r="X349" s="3" t="inlineStr"/>
-      <c r="Y349" s="3" t="inlineStr"/>
+      <c r="X349" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y349" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="350" ht="25" customHeight="1">
       <c r="A350" s="2" t="n">
@@ -40418,8 +41058,16 @@
       <c r="W350" s="2" t="n">
         <v>46.71</v>
       </c>
-      <c r="X350" s="2" t="inlineStr"/>
-      <c r="Y350" s="2" t="inlineStr"/>
+      <c r="X350" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y350" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="351" ht="25" customHeight="1">
       <c r="A351" s="3" t="n">
@@ -40529,8 +41177,16 @@
       <c r="W351" s="3" t="n">
         <v>46.43</v>
       </c>
-      <c r="X351" s="3" t="inlineStr"/>
-      <c r="Y351" s="3" t="inlineStr"/>
+      <c r="X351" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y351" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="352" ht="25" customHeight="1">
       <c r="A352" s="2" t="n">
@@ -40640,8 +41296,16 @@
       <c r="W352" s="2" t="n">
         <v>46.43</v>
       </c>
-      <c r="X352" s="2" t="inlineStr"/>
-      <c r="Y352" s="2" t="inlineStr"/>
+      <c r="X352" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y352" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="353" ht="25" customHeight="1">
       <c r="A353" s="3" t="n">
@@ -41096,8 +41760,16 @@
       <c r="W356" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="X356" s="2" t="inlineStr"/>
-      <c r="Y356" s="2" t="inlineStr"/>
+      <c r="X356" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y356" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="357" ht="25" customHeight="1">
       <c r="A357" s="3" t="n">
@@ -41207,8 +41879,16 @@
       <c r="W357" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="X357" s="3" t="inlineStr"/>
-      <c r="Y357" s="3" t="inlineStr"/>
+      <c r="X357" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y357" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="358" ht="25" customHeight="1">
       <c r="A358" s="2" t="n">
@@ -41318,8 +41998,16 @@
       <c r="W358" s="2" t="n">
         <v>43.71</v>
       </c>
-      <c r="X358" s="2" t="inlineStr"/>
-      <c r="Y358" s="2" t="inlineStr"/>
+      <c r="X358" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y358" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="359" ht="25" customHeight="1">
       <c r="A359" s="3" t="n">
@@ -41429,8 +42117,16 @@
       <c r="W359" s="3" t="n">
         <v>43.71</v>
       </c>
-      <c r="X359" s="3" t="inlineStr"/>
-      <c r="Y359" s="3" t="inlineStr"/>
+      <c r="X359" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y359" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="360" ht="25" customHeight="1">
       <c r="A360" s="2" t="n">
@@ -41540,8 +42236,16 @@
       <c r="W360" s="2" t="n">
         <v>43.57</v>
       </c>
-      <c r="X360" s="2" t="inlineStr"/>
-      <c r="Y360" s="2" t="inlineStr"/>
+      <c r="X360" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y360" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="361" ht="25" customHeight="1">
       <c r="A361" s="3" t="n">
@@ -41651,8 +42355,16 @@
       <c r="W361" s="3" t="n">
         <v>43.43</v>
       </c>
-      <c r="X361" s="3" t="inlineStr"/>
-      <c r="Y361" s="3" t="inlineStr"/>
+      <c r="X361" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y361" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="362" ht="25" customHeight="1">
       <c r="A362" s="2" t="n">
@@ -41762,8 +42474,16 @@
       <c r="W362" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="X362" s="2" t="inlineStr"/>
-      <c r="Y362" s="2" t="inlineStr"/>
+      <c r="X362" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y362" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="363" ht="25" customHeight="1">
       <c r="A363" s="3" t="n">
@@ -41873,8 +42593,16 @@
       <c r="W363" s="3" t="n">
         <v>41.14</v>
       </c>
-      <c r="X363" s="3" t="inlineStr"/>
-      <c r="Y363" s="3" t="inlineStr"/>
+      <c r="X363" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y363" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="364" ht="25" customHeight="1">
       <c r="A364" s="2" t="n">
@@ -41984,8 +42712,16 @@
       <c r="W364" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="X364" s="2" t="inlineStr"/>
-      <c r="Y364" s="2" t="inlineStr"/>
+      <c r="X364" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y364" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="365" ht="25" customHeight="1">
       <c r="A365" s="3" t="n">
@@ -42095,8 +42831,16 @@
       <c r="W365" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="X365" s="3" t="inlineStr"/>
-      <c r="Y365" s="3" t="inlineStr"/>
+      <c r="X365" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y365" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="366" ht="25" customHeight="1">
       <c r="A366" s="2" t="n">
@@ -42206,8 +42950,16 @@
       <c r="W366" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="X366" s="2" t="inlineStr"/>
-      <c r="Y366" s="2" t="inlineStr"/>
+      <c r="X366" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y366" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="367" ht="25" customHeight="1">
       <c r="A367" s="3" t="n">
@@ -42317,8 +43069,16 @@
       <c r="W367" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="X367" s="3" t="inlineStr"/>
-      <c r="Y367" s="3" t="inlineStr"/>
+      <c r="X367" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y367" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="368" ht="25" customHeight="1">
       <c r="A368" s="2" t="n">
@@ -42428,8 +43188,16 @@
       <c r="W368" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="X368" s="2" t="inlineStr"/>
-      <c r="Y368" s="2" t="inlineStr"/>
+      <c r="X368" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y368" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="369" ht="25" customHeight="1">
       <c r="A369" s="3" t="n">
@@ -42539,8 +43307,16 @@
       <c r="W369" s="3" t="n">
         <v>38.71</v>
       </c>
-      <c r="X369" s="3" t="inlineStr"/>
-      <c r="Y369" s="3" t="inlineStr"/>
+      <c r="X369" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y369" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="370" ht="25" customHeight="1">
       <c r="A370" s="2" t="n">
@@ -42650,8 +43426,16 @@
       <c r="W370" s="2" t="n">
         <v>38.71</v>
       </c>
-      <c r="X370" s="2" t="inlineStr"/>
-      <c r="Y370" s="2" t="inlineStr"/>
+      <c r="X370" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y370" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="371" ht="25" customHeight="1">
       <c r="A371" s="3" t="n">
@@ -42761,8 +43545,16 @@
       <c r="W371" s="3" t="n">
         <v>38.43</v>
       </c>
-      <c r="X371" s="3" t="inlineStr"/>
-      <c r="Y371" s="3" t="inlineStr"/>
+      <c r="X371" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y371" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="372" ht="25" customHeight="1">
       <c r="A372" s="2" t="n">
@@ -42872,8 +43664,16 @@
       <c r="W372" s="2" t="n">
         <v>38.33</v>
       </c>
-      <c r="X372" s="2" t="inlineStr"/>
-      <c r="Y372" s="2" t="inlineStr"/>
+      <c r="X372" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y372" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="373" ht="25" customHeight="1">
       <c r="A373" s="3" t="n">
@@ -42983,8 +43783,16 @@
       <c r="W373" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="X373" s="3" t="inlineStr"/>
-      <c r="Y373" s="3" t="inlineStr"/>
+      <c r="X373" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y373" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="374" ht="25" customHeight="1">
       <c r="A374" s="2" t="n">
@@ -43094,8 +43902,16 @@
       <c r="W374" s="2" t="n">
         <v>37.33</v>
       </c>
-      <c r="X374" s="2" t="inlineStr"/>
-      <c r="Y374" s="2" t="inlineStr"/>
+      <c r="X374" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y374" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="375" ht="25" customHeight="1">
       <c r="A375" s="3" t="n">
@@ -43205,8 +44021,16 @@
       <c r="W375" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="X375" s="3" t="inlineStr"/>
-      <c r="Y375" s="3" t="inlineStr"/>
+      <c r="X375" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y375" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="376" ht="25" customHeight="1">
       <c r="A376" s="2" t="n">
@@ -43316,8 +44140,16 @@
       <c r="W376" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="X376" s="2" t="inlineStr"/>
-      <c r="Y376" s="2" t="inlineStr"/>
+      <c r="X376" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y376" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="377" ht="25" customHeight="1">
       <c r="A377" s="3" t="n">
@@ -43427,8 +44259,16 @@
       <c r="W377" s="3" t="n">
         <v>33.71</v>
       </c>
-      <c r="X377" s="3" t="inlineStr"/>
-      <c r="Y377" s="3" t="inlineStr"/>
+      <c r="X377" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y377" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="378" ht="25" customHeight="1">
       <c r="A378" s="2" t="n">
@@ -43538,8 +44378,16 @@
       <c r="W378" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="X378" s="2" t="inlineStr"/>
-      <c r="Y378" s="2" t="inlineStr"/>
+      <c r="X378" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y378" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="379" ht="25" customHeight="1">
       <c r="A379" s="3" t="n">
@@ -43649,8 +44497,16 @@
       <c r="W379" s="3" t="n">
         <v>32.43</v>
       </c>
-      <c r="X379" s="3" t="inlineStr"/>
-      <c r="Y379" s="3" t="inlineStr"/>
+      <c r="X379" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y379" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="380" ht="25" customHeight="1">
       <c r="A380" s="2" t="n">
@@ -43760,8 +44616,16 @@
       <c r="W380" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="X380" s="2" t="inlineStr"/>
-      <c r="Y380" s="2" t="inlineStr"/>
+      <c r="X380" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y380" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="381" ht="25" customHeight="1">
       <c r="A381" s="3" t="n">
@@ -43871,8 +44735,16 @@
       <c r="W381" s="3" t="n">
         <v>30.5</v>
       </c>
-      <c r="X381" s="3" t="inlineStr"/>
-      <c r="Y381" s="3" t="inlineStr"/>
+      <c r="X381" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y381" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="382" ht="25" customHeight="1">
       <c r="A382" s="2" t="n">
@@ -43982,8 +44854,16 @@
       <c r="W382" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="X382" s="2" t="inlineStr"/>
-      <c r="Y382" s="2" t="inlineStr"/>
+      <c r="X382" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y382" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="383" ht="25" customHeight="1">
       <c r="A383" s="3" t="n">
@@ -44093,8 +44973,16 @@
       <c r="W383" s="3" t="n">
         <v>28.5</v>
       </c>
-      <c r="X383" s="3" t="inlineStr"/>
-      <c r="Y383" s="3" t="inlineStr"/>
+      <c r="X383" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y383" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="384" ht="25" customHeight="1">
       <c r="A384" s="2" t="n">
@@ -44204,8 +45092,16 @@
       <c r="W384" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="X384" s="2" t="inlineStr"/>
-      <c r="Y384" s="2" t="inlineStr"/>
+      <c r="X384" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y384" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="385" ht="25" customHeight="1">
       <c r="A385" s="3" t="n">
@@ -44315,8 +45211,16 @@
       <c r="W385" s="3" t="n">
         <v>26.29</v>
       </c>
-      <c r="X385" s="3" t="inlineStr"/>
-      <c r="Y385" s="3" t="inlineStr"/>
+      <c r="X385" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y385" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="386" ht="25" customHeight="1">
       <c r="A386" s="2" t="n">
@@ -44426,8 +45330,16 @@
       <c r="W386" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="X386" s="2" t="inlineStr"/>
-      <c r="Y386" s="2" t="inlineStr"/>
+      <c r="X386" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y386" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="387" ht="25" customHeight="1">
       <c r="A387" s="3" t="n">
@@ -44537,8 +45449,16 @@
       <c r="W387" s="3" t="n">
         <v>19.67</v>
       </c>
-      <c r="X387" s="3" t="inlineStr"/>
-      <c r="Y387" s="3" t="inlineStr"/>
+      <c r="X387" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y387" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="388" ht="25" customHeight="1">
       <c r="A388" s="2" t="n">
@@ -44648,8 +45568,16 @@
       <c r="W388" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="X388" s="2" t="inlineStr"/>
-      <c r="Y388" s="2" t="inlineStr"/>
+      <c r="X388" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y388" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="389" ht="25" customHeight="1">
       <c r="A389" s="3" t="n">
@@ -44759,8 +45687,16 @@
       <c r="W389" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="X389" s="3" t="inlineStr"/>
-      <c r="Y389" s="3" t="inlineStr"/>
+      <c r="X389" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y389" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="390" ht="25" customHeight="1">
       <c r="A390" s="2" t="n">
@@ -44870,8 +45806,16 @@
       <c r="W390" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="X390" s="2" t="inlineStr"/>
-      <c r="Y390" s="2" t="inlineStr"/>
+      <c r="X390" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="Y390" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
